--- a/data/trans_orig/P26-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P26-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DE1958C-6536-47E4-918E-37BA973E0EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FFEF045-53C7-4C01-AF56-D9589AEE784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD306EA0-9ED3-4555-BE17-E6F239FC2387}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C803E136-F271-45AF-AE84-EDCE5F0EB84B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>34,17%</t>
   </si>
   <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
   </si>
   <si>
     <t>35,37%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
   </si>
   <si>
     <t>34,74%</t>
   </si>
   <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>65,83%</t>
   </si>
   <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>64,63%</t>
   </si>
   <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
   </si>
   <si>
     <t>65,26%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,76 +140,73 @@
     <t>27,02%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>37,83%</t>
   </si>
   <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
   </si>
   <si>
     <t>32,38%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
   <si>
     <t>72,98%</t>
   </si>
   <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>62,17%</t>
   </si>
   <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
   <si>
     <t>67,62%</t>
   </si>
   <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
   </si>
   <si>
     <t>33,2%</t>
@@ -218,31 +215,28 @@
     <t>30,92%</t>
   </si>
   <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
   </si>
   <si>
     <t>62,33%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>64,57%</t>
+    <t>64,65%</t>
   </si>
   <si>
     <t>69,08%</t>
@@ -254,55 +248,55 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
   </si>
   <si>
     <t>35,94%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
   </si>
   <si>
     <t>70,26%</t>
   </si>
   <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>64,06%</t>
   </si>
   <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,103 +305,103 @@
     <t>27,92%</t>
   </si>
   <si>
-    <t>25,08%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
+    <t>34,78%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
     <t>69,44%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
     <t>28,63%</t>
   </si>
   <si>
-    <t>30,27%</t>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>37,09%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>38,73%</t>
   </si>
   <si>
     <t>32,89%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>71,37%</t>
   </si>
   <si>
-    <t>69,73%</t>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
   </si>
   <si>
     <t>62,91%</t>
   </si>
   <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
+    <t>61,27%</t>
   </si>
   <si>
     <t>67,11%</t>
   </si>
   <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -419,319 +413,301 @@
     <t>33,22%</t>
   </si>
   <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>51,79%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
   </si>
   <si>
     <t>66,78%</t>
   </si>
   <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
   <si>
     <t>48,21%</t>
   </si>
   <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>31,07%</t>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
   </si>
   <si>
     <t>39,27%</t>
   </si>
   <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
   </si>
   <si>
     <t>60,73%</t>
   </si>
   <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
+    <t>67,02%</t>
   </si>
   <si>
     <t>63,4%</t>
   </si>
   <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
   </si>
   <si>
     <t>32,88%</t>
   </si>
   <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
   </si>
   <si>
     <t>35,84%</t>
   </si>
   <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>67,12%</t>
   </si>
   <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
   </si>
   <si>
     <t>64,16%</t>
   </si>
   <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2015 (Tasa respuesta: 92,94%)</t>
@@ -740,295 +716,307 @@
     <t>30,63%</t>
   </si>
   <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>23,72%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>26,75%</t>
   </si>
   <si>
-    <t>28,25%</t>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>24,93%</t>
+    <t>27,01%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>76,28%</t>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
   </si>
   <si>
     <t>73,25%</t>
   </si>
   <si>
-    <t>71,75%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
   </si>
   <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>75,07%</t>
+    <t>72,99%</t>
   </si>
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
@@ -1037,313 +1025,319 @@
     <t>12,57%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
+    <t>7,7%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>92,3%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>91,47%</t>
   </si>
   <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>91,85%</t>
   </si>
   <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>85,96%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>86,11%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>15,0%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
   </si>
   <si>
     <t>14,26%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>85,0%</t>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>85,74%</t>
   </si>
   <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>18,02%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>81,98%</t>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
   </si>
   <si>
     <t>85,4%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2E9D98-7E8F-4DEA-AD46-7DA427BE40D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B85660-C9D9-486D-B54A-1203E28B9437}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2189,13 +2183,13 @@
         <v>261376</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -2204,13 +2198,13 @@
         <v>335265</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>563</v>
@@ -2219,13 +2213,13 @@
         <v>596642</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2234,13 @@
         <v>645857</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -2255,13 +2249,13 @@
         <v>554731</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1119</v>
@@ -2270,13 +2264,13 @@
         <v>1200587</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2326,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2344,13 +2338,13 @@
         <v>188754</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -2359,13 +2353,13 @@
         <v>224068</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>409</v>
@@ -2374,13 +2368,13 @@
         <v>412822</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2389,13 @@
         <v>445861</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>406</v>
@@ -2410,13 +2404,13 @@
         <v>399422</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>830</v>
@@ -2425,13 +2419,13 @@
         <v>845282</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,7 +2481,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2499,13 +2493,13 @@
         <v>242155</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>338</v>
@@ -2514,13 +2508,13 @@
         <v>353791</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>595</v>
@@ -2529,13 +2523,13 @@
         <v>595947</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2544,13 @@
         <v>625053</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>580</v>
@@ -2565,13 +2559,13 @@
         <v>600740</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1241</v>
@@ -2580,13 +2574,13 @@
         <v>1225792</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2648,13 @@
         <v>873885</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>1124</v>
@@ -2669,13 +2663,13 @@
         <v>1146829</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>1980</v>
@@ -2684,13 +2678,13 @@
         <v>2020714</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2699,13 @@
         <v>2177981</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H20" s="7">
         <v>1898</v>
@@ -2720,13 +2714,13 @@
         <v>1945558</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>4041</v>
@@ -2735,13 +2729,13 @@
         <v>4123539</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D4E648-F3EA-4E4B-ADF7-538C9BFE2F2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914AA4B0-329B-49C4-83FC-0221E9BAA41A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2936,13 @@
         <v>37907</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -2957,13 +2951,13 @@
         <v>56038</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>89</v>
@@ -2972,13 +2966,13 @@
         <v>93945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2987,13 @@
         <v>76215</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>47</v>
@@ -3008,13 +3002,13 @@
         <v>52165</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>127</v>
@@ -3023,13 +3017,13 @@
         <v>128380</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3091,13 @@
         <v>150728</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>181</v>
@@ -3112,13 +3106,13 @@
         <v>190240</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>322</v>
@@ -3127,13 +3121,13 @@
         <v>340968</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3142,13 @@
         <v>416109</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>333</v>
@@ -3163,28 +3157,28 @@
         <v>355096</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>725</v>
       </c>
       <c r="N8" s="7">
-        <v>771205</v>
+        <v>771206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,7 +3220,7 @@
         <v>1047</v>
       </c>
       <c r="N9" s="7">
-        <v>1112173</v>
+        <v>1112174</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3252,13 +3246,13 @@
         <v>320697</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>364</v>
@@ -3267,13 +3261,13 @@
         <v>397329</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>660</v>
@@ -3282,13 +3276,13 @@
         <v>718026</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3297,13 @@
         <v>660726</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>539</v>
@@ -3318,13 +3312,13 @@
         <v>594996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -3333,13 +3327,13 @@
         <v>1255722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,7 +3389,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3407,13 +3401,13 @@
         <v>236498</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>278</v>
@@ -3422,13 +3416,13 @@
         <v>301747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>496</v>
@@ -3437,13 +3431,13 @@
         <v>538245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3452,13 @@
         <v>480372</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>388</v>
@@ -3473,13 +3467,13 @@
         <v>431126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>824</v>
@@ -3488,13 +3482,13 @@
         <v>911498</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,7 +3544,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3562,13 +3556,13 @@
         <v>332951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>343</v>
@@ -3577,13 +3571,13 @@
         <v>357101</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>665</v>
@@ -3592,13 +3586,13 @@
         <v>690052</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3607,13 @@
         <v>568275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>598</v>
@@ -3628,13 +3622,13 @@
         <v>626954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>1142</v>
@@ -3643,13 +3637,13 @@
         <v>1195229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3711,13 @@
         <v>1078781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>1215</v>
@@ -3732,13 +3726,13 @@
         <v>1302456</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>2232</v>
@@ -3747,13 +3741,13 @@
         <v>2381237</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3762,13 @@
         <v>2201696</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>1905</v>
@@ -3783,13 +3777,13 @@
         <v>2060336</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>3964</v>
@@ -3798,13 +3792,13 @@
         <v>4262033</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5654A9C-874D-4ADC-8BC9-EB5B7B0A2ADF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB085E93-C1F1-4F3A-9C57-1348D1CCD726}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +3999,13 @@
         <v>31527</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -4020,13 +4014,13 @@
         <v>28617</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4035,13 +4029,13 @@
         <v>60144</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4050,13 @@
         <v>71398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -4071,13 +4065,13 @@
         <v>72119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>143</v>
@@ -4086,13 +4080,13 @@
         <v>143517</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4154,13 @@
         <v>124234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -4175,13 +4169,13 @@
         <v>141622</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>257</v>
@@ -4190,13 +4184,13 @@
         <v>265856</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4205,13 @@
         <v>384889</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>375</v>
@@ -4226,13 +4220,13 @@
         <v>381992</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>752</v>
@@ -4241,13 +4235,13 @@
         <v>766881</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4309,13 @@
         <v>228619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>235</v>
@@ -4330,13 +4324,13 @@
         <v>247274</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>445</v>
@@ -4345,13 +4339,13 @@
         <v>475893</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4360,13 @@
         <v>736917</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>686</v>
@@ -4381,13 +4375,13 @@
         <v>732269</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1372</v>
@@ -4396,13 +4390,13 @@
         <v>1469187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,7 +4452,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4470,13 +4464,13 @@
         <v>203345</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>244</v>
@@ -4485,13 +4479,13 @@
         <v>254313</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>429</v>
@@ -4500,13 +4494,13 @@
         <v>457658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4515,13 @@
         <v>519891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -4536,13 +4530,13 @@
         <v>478529</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>922</v>
@@ -4551,13 +4545,13 @@
         <v>998420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4607,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4625,13 +4619,13 @@
         <v>207063</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>193</v>
@@ -4640,13 +4634,13 @@
         <v>206425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>398</v>
@@ -4655,13 +4649,13 @@
         <v>413487</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4670,13 @@
         <v>643059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>684</v>
@@ -4691,13 +4685,13 @@
         <v>740177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>1327</v>
@@ -4706,13 +4700,13 @@
         <v>1383237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,28 +4774,28 @@
         <v>794787</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>844</v>
       </c>
       <c r="I19" s="7">
-        <v>878251</v>
+        <v>878250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>1589</v>
@@ -4810,13 +4804,13 @@
         <v>1673037</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4825,13 @@
         <v>2356155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>2262</v>
@@ -4846,13 +4840,13 @@
         <v>2405087</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>4516</v>
@@ -4861,13 +4855,13 @@
         <v>4761242</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,7 +4888,7 @@
         <v>3106</v>
       </c>
       <c r="I21" s="7">
-        <v>3283338</v>
+        <v>3283337</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4923,7 +4917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3314DE57-D50D-49CF-8F75-F978482C2BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BEC314-96B6-4D7E-8529-37E3CC58C99E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5062,13 @@
         <v>9572</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5083,13 +5077,13 @@
         <v>11377</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -5098,13 +5092,13 @@
         <v>20949</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,16 +5110,16 @@
         <v>82</v>
       </c>
       <c r="D5" s="7">
-        <v>66583</v>
+        <v>66582</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>178</v>
@@ -5134,13 +5128,13 @@
         <v>99854</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>260</v>
@@ -5149,13 +5143,13 @@
         <v>166436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,7 +5161,7 @@
         <v>91</v>
       </c>
       <c r="D6" s="7">
-        <v>76155</v>
+        <v>76154</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5223,13 +5217,13 @@
         <v>38220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -5238,13 +5232,13 @@
         <v>45589</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>105</v>
@@ -5253,13 +5247,13 @@
         <v>83809</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5268,13 @@
         <v>456406</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>819</v>
@@ -5289,13 +5283,13 @@
         <v>488602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>1335</v>
@@ -5304,13 +5298,13 @@
         <v>945008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5372,13 @@
         <v>131285</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>183</v>
@@ -5393,13 +5387,13 @@
         <v>135597</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>251</v>
@@ -5408,13 +5402,13 @@
         <v>266882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5423,13 @@
         <v>824812</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>1183</v>
@@ -5444,13 +5438,13 @@
         <v>830232</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>1993</v>
@@ -5459,13 +5453,13 @@
         <v>1655044</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,7 +5515,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5533,13 +5527,13 @@
         <v>77073</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -5548,13 +5542,13 @@
         <v>116856</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>200</v>
@@ -5563,13 +5557,13 @@
         <v>193929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5578,13 @@
         <v>591467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>816</v>
@@ -5599,13 +5593,13 @@
         <v>702617</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>1366</v>
@@ -5614,13 +5608,13 @@
         <v>1294084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,7 +5670,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5688,13 +5682,13 @@
         <v>133489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>194</v>
@@ -5703,13 +5697,13 @@
         <v>153039</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>317</v>
@@ -5718,13 +5712,13 @@
         <v>286527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5733,13 @@
         <v>754722</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>1220</v>
@@ -5754,13 +5748,13 @@
         <v>895375</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>2013</v>
@@ -5769,13 +5763,13 @@
         <v>1650098</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5837,13 @@
         <v>389638</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>605</v>
@@ -5858,13 +5852,13 @@
         <v>462458</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>901</v>
@@ -5873,13 +5867,13 @@
         <v>852096</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5888,13 @@
         <v>2693991</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>4216</v>
@@ -5909,13 +5903,13 @@
         <v>3016679</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>6967</v>
@@ -5924,13 +5918,13 @@
         <v>5710670</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,7 +5980,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P26-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P26-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FFEF045-53C7-4C01-AF56-D9589AEE784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8C70FB-DA51-452D-B380-B764413D038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C803E136-F271-45AF-AE84-EDCE5F0EB84B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A11771BD-BBF9-4163-B529-CDCD0DF263C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,946 +77,982 @@
     <t>34,17%</t>
   </si>
   <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2016 (Tasa respuesta: 92,94%)</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2015 (Tasa respuesta: 92,94%)</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
   </si>
   <si>
     <t>77,49%</t>
   </si>
   <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>34,7%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
   </si>
   <si>
     <t>71,88%</t>
   </si>
   <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>65,3%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
   </si>
   <si>
     <t>24,36%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>18,96%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>75,64%</t>
   </si>
   <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
+    <t>81,04%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
   </si>
   <si>
     <t>26,75%</t>
   </si>
   <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>27,01%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>73,25%</t>
   </si>
   <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>72,99%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
   </si>
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
@@ -1749,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B85660-C9D9-486D-B54A-1203E28B9437}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437B7F26-643E-447A-B220-D7FA1439B398}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2183,13 +2219,13 @@
         <v>261376</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -2198,13 +2234,13 @@
         <v>335265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>563</v>
@@ -2213,13 +2249,13 @@
         <v>596642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2270,13 @@
         <v>645857</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -2249,13 +2285,13 @@
         <v>554731</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1119</v>
@@ -2264,13 +2300,13 @@
         <v>1200587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2362,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2338,13 +2374,13 @@
         <v>188754</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -2353,13 +2389,13 @@
         <v>224068</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>409</v>
@@ -2368,13 +2404,13 @@
         <v>412822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2425,13 @@
         <v>445861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>406</v>
@@ -2404,13 +2440,13 @@
         <v>399422</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>830</v>
@@ -2419,13 +2455,13 @@
         <v>845282</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2517,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2493,13 +2529,13 @@
         <v>242155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>338</v>
@@ -2508,13 +2544,13 @@
         <v>353791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>595</v>
@@ -2523,13 +2559,13 @@
         <v>595947</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2580,13 @@
         <v>625053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>580</v>
@@ -2559,13 +2595,13 @@
         <v>600740</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1241</v>
@@ -2574,13 +2610,13 @@
         <v>1225792</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2684,13 @@
         <v>873885</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1124</v>
@@ -2663,13 +2699,13 @@
         <v>1146829</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1980</v>
@@ -2678,13 +2714,13 @@
         <v>2020714</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2735,13 @@
         <v>2177981</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1898</v>
@@ -2714,13 +2750,13 @@
         <v>1945558</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4041</v>
@@ -2729,13 +2765,13 @@
         <v>4123539</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,7 +2827,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914AA4B0-329B-49C4-83FC-0221E9BAA41A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9EF075-8E56-4444-87BD-4314463D4C9E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2829,7 +2865,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,13 +2972,13 @@
         <v>37907</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -2951,13 +2987,13 @@
         <v>56038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>89</v>
@@ -2966,13 +3002,13 @@
         <v>93945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +3023,13 @@
         <v>76215</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>47</v>
@@ -3002,13 +3038,13 @@
         <v>52165</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>127</v>
@@ -3017,13 +3053,13 @@
         <v>128380</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3127,13 @@
         <v>150728</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>181</v>
@@ -3106,13 +3142,13 @@
         <v>190240</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>322</v>
@@ -3121,13 +3157,13 @@
         <v>340968</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3178,13 @@
         <v>416109</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>333</v>
@@ -3157,13 +3193,13 @@
         <v>355096</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>725</v>
@@ -3172,13 +3208,13 @@
         <v>771206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3282,13 @@
         <v>320697</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>364</v>
@@ -3261,13 +3297,13 @@
         <v>397329</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>660</v>
@@ -3276,13 +3312,13 @@
         <v>718026</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3333,13 @@
         <v>660726</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>539</v>
@@ -3312,13 +3348,13 @@
         <v>594996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -3327,13 +3363,13 @@
         <v>1255722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,7 +3425,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3401,13 +3437,13 @@
         <v>236498</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>278</v>
@@ -3416,13 +3452,13 @@
         <v>301747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>496</v>
@@ -3431,13 +3467,13 @@
         <v>538245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3488,13 @@
         <v>480372</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>388</v>
@@ -3467,13 +3503,13 @@
         <v>431126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>824</v>
@@ -3482,13 +3518,13 @@
         <v>911498</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3580,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3556,13 +3592,13 @@
         <v>332951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>343</v>
@@ -3571,13 +3607,13 @@
         <v>357101</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>665</v>
@@ -3586,13 +3622,13 @@
         <v>690052</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3643,13 @@
         <v>568275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>598</v>
@@ -3622,13 +3658,13 @@
         <v>626954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1142</v>
@@ -3637,13 +3673,13 @@
         <v>1195229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3747,13 @@
         <v>1078781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>1215</v>
@@ -3726,13 +3762,13 @@
         <v>1302456</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>2232</v>
@@ -3741,13 +3777,13 @@
         <v>2381237</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3798,13 @@
         <v>2201696</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>1905</v>
@@ -3777,13 +3813,13 @@
         <v>2060336</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>3964</v>
@@ -3792,13 +3828,13 @@
         <v>4262033</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3890,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB085E93-C1F1-4F3A-9C57-1348D1CCD726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1BE783-9796-4A55-94F7-E6D3C2B58F8A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,7 +3928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,13 +4035,13 @@
         <v>31527</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -4014,13 +4050,13 @@
         <v>28617</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4029,13 +4065,13 @@
         <v>60144</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4086,13 @@
         <v>71398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -4065,13 +4101,13 @@
         <v>72119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>143</v>
@@ -4080,13 +4116,13 @@
         <v>143517</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4190,13 @@
         <v>124234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -4169,13 +4205,13 @@
         <v>141622</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>257</v>
@@ -4184,13 +4220,13 @@
         <v>265856</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4241,13 @@
         <v>384889</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>375</v>
@@ -4220,13 +4256,13 @@
         <v>381992</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>752</v>
@@ -4235,13 +4271,13 @@
         <v>766881</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4345,13 @@
         <v>228619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>235</v>
@@ -4324,13 +4360,13 @@
         <v>247274</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>445</v>
@@ -4339,13 +4375,13 @@
         <v>475893</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4396,13 @@
         <v>736917</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>686</v>
@@ -4375,13 +4411,13 @@
         <v>732269</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1372</v>
@@ -4390,13 +4426,13 @@
         <v>1469187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4488,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4464,13 +4500,13 @@
         <v>203345</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>244</v>
@@ -4479,13 +4515,13 @@
         <v>254313</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>429</v>
@@ -4494,13 +4530,13 @@
         <v>457658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4551,13 @@
         <v>519891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -4530,13 +4566,13 @@
         <v>478529</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>922</v>
@@ -4545,13 +4581,13 @@
         <v>998420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4643,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4619,13 +4655,13 @@
         <v>207063</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>193</v>
@@ -4634,13 +4670,13 @@
         <v>206425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>398</v>
@@ -4649,13 +4685,13 @@
         <v>413487</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4706,13 @@
         <v>643059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>684</v>
@@ -4685,13 +4721,13 @@
         <v>740177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>1327</v>
@@ -4700,13 +4736,13 @@
         <v>1383237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,28 +4810,28 @@
         <v>794787</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>844</v>
       </c>
       <c r="I19" s="7">
-        <v>878250</v>
+        <v>878251</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>1589</v>
@@ -4804,13 +4840,13 @@
         <v>1673037</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4861,13 @@
         <v>2356155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>2262</v>
@@ -4840,13 +4876,13 @@
         <v>2405087</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>4516</v>
@@ -4855,13 +4891,13 @@
         <v>4761242</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,7 +4924,7 @@
         <v>3106</v>
       </c>
       <c r="I21" s="7">
-        <v>3283337</v>
+        <v>3283338</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4917,7 +4953,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4938,7 +4974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BEC314-96B6-4D7E-8529-37E3CC58C99E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B4EED-A1C9-4921-9431-A2B30DE6B9FE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,7 +4991,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,13 +5098,13 @@
         <v>9572</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5077,13 +5113,13 @@
         <v>11377</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -5092,13 +5128,13 @@
         <v>20949</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5149,13 @@
         <v>66582</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="H5" s="7">
         <v>178</v>
@@ -5128,13 +5164,13 @@
         <v>99854</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="M5" s="7">
         <v>260</v>
@@ -5143,13 +5179,13 @@
         <v>166436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5253,13 @@
         <v>38220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -5232,13 +5268,13 @@
         <v>45589</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>105</v>
@@ -5247,13 +5283,13 @@
         <v>83809</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5304,13 @@
         <v>456406</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>819</v>
@@ -5283,13 +5319,13 @@
         <v>488602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>1335</v>
@@ -5298,13 +5334,13 @@
         <v>945008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5408,13 @@
         <v>131285</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>183</v>
@@ -5387,13 +5423,13 @@
         <v>135597</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>251</v>
@@ -5402,13 +5438,13 @@
         <v>266882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5459,13 @@
         <v>824812</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>1183</v>
@@ -5438,13 +5474,13 @@
         <v>830232</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>1993</v>
@@ -5453,13 +5489,13 @@
         <v>1655044</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,7 +5551,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5527,13 +5563,13 @@
         <v>77073</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -5542,13 +5578,13 @@
         <v>116856</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>200</v>
@@ -5557,13 +5593,13 @@
         <v>193929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5614,13 @@
         <v>591467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>816</v>
@@ -5593,13 +5629,13 @@
         <v>702617</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>1366</v>
@@ -5608,13 +5644,13 @@
         <v>1294084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,7 +5706,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5682,13 +5718,13 @@
         <v>133489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>194</v>
@@ -5697,13 +5733,13 @@
         <v>153039</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>317</v>
@@ -5712,13 +5748,13 @@
         <v>286527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5769,13 @@
         <v>754722</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>1220</v>
@@ -5748,13 +5784,13 @@
         <v>895375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>2013</v>
@@ -5763,13 +5799,13 @@
         <v>1650098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5873,13 @@
         <v>389638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>605</v>
@@ -5852,13 +5888,13 @@
         <v>462458</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>901</v>
@@ -5867,13 +5903,13 @@
         <v>852096</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5924,13 @@
         <v>2693991</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>4216</v>
@@ -5903,13 +5939,13 @@
         <v>3016679</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>6967</v>
@@ -5918,13 +5954,13 @@
         <v>5710670</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,7 +6016,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P26-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P26-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8C70FB-DA51-452D-B380-B764413D038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43BB2EBF-21FD-4D5D-B964-308D531EDC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A11771BD-BBF9-4163-B529-CDCD0DF263C5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3DCDB0C-37D0-4635-9035-DA72F5C38548}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>34,17%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>35,37%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
   </si>
   <si>
     <t>34,74%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>65,83%</t>
   </si>
   <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>64,63%</t>
   </si>
   <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
   </si>
   <si>
     <t>65,26%</t>
   </si>
   <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>27,02%</t>
   </si>
   <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
   </si>
   <si>
     <t>37,83%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
   </si>
   <si>
     <t>32,38%</t>
   </si>
   <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
   </si>
   <si>
     <t>72,98%</t>
   </si>
   <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>62,17%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
   </si>
   <si>
     <t>67,62%</t>
   </si>
   <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,55 +197,55 @@
     <t>28,81%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>62,33%</t>
   </si>
   <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -254,55 +254,55 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>35,94%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>70,26%</t>
   </si>
   <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
   </si>
   <si>
     <t>64,06%</t>
   </si>
   <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,289 +311,289 @@
     <t>27,92%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>37,06%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
     <t>30,66%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
   </si>
   <si>
     <t>69,34%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>40,04%</t>
   </si>
   <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
   </si>
   <si>
     <t>36,38%</t>
   </si>
   <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
   </si>
   <si>
     <t>59,96%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
   </si>
   <si>
     <t>63,62%</t>
   </si>
   <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
   </si>
   <si>
     <t>41,17%</t>
   </si>
   <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
   </si>
   <si>
     <t>37,13%</t>
@@ -602,31 +602,31 @@
     <t>34,53%</t>
   </si>
   <si>
-    <t>40,09%</t>
+    <t>39,57%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
   </si>
   <si>
     <t>58,83%</t>
   </si>
   <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
   </si>
   <si>
     <t>62,87%</t>
   </si>
   <si>
-    <t>59,91%</t>
+    <t>60,43%</t>
   </si>
   <si>
     <t>65,47%</t>
@@ -635,109 +635,103 @@
     <t>36,94%</t>
   </si>
   <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
   </si>
   <si>
     <t>36,29%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
   </si>
   <si>
     <t>36,6%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
   </si>
   <si>
     <t>63,06%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>63,71%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>63,4%</t>
   </si>
   <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
   </si>
   <si>
     <t>32,88%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>37,03%</t>
   </si>
   <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
     <t>67,12%</t>
   </si>
   <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
   </si>
   <si>
     <t>62,97%</t>
   </si>
   <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
+    <t>65,43%</t>
   </si>
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2016 (Tasa respuesta: 92,94%)</t>
@@ -746,313 +740,295 @@
     <t>30,63%</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>29,53%</t>
   </si>
   <si>
-    <t>23,81%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
   </si>
   <si>
     <t>70,47%</t>
   </si>
   <si>
-    <t>76,19%</t>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>24,4%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>27,05%</t>
   </si>
   <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>31,12%</t>
   </si>
   <si>
     <t>25,74%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>75,6%</t>
   </si>
   <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
   </si>
   <si>
     <t>72,95%</t>
   </si>
   <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>68,88%</t>
   </si>
   <si>
     <t>74,26%</t>
   </si>
   <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>76,32%</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>75,53%</t>
   </si>
   <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>74,99%</t>
   </si>
   <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>23,72%</t>
   </si>
   <si>
     <t>26,75%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>28,25%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>24,93%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>76,28%</t>
   </si>
   <si>
     <t>73,25%</t>
   </si>
   <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
+    <t>71,75%</t>
   </si>
   <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>75,07%</t>
   </si>
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
@@ -1061,319 +1037,313 @@
     <t>12,57%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>85,96%</t>
   </si>
   <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>86,11%</t>
   </si>
   <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>15,0%</t>
   </si>
   <si>
     <t>14,26%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>85,0%</t>
   </si>
   <si>
     <t>85,74%</t>
   </si>
   <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
+    <t>18,02%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>81,98%</t>
   </si>
   <si>
     <t>85,4%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437B7F26-643E-447A-B220-D7FA1439B398}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3FAB7E-6D6F-4981-A3CD-6D251EC50138}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2687,10 +2657,10 @@
         <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1124</v>
@@ -2699,13 +2669,13 @@
         <v>1146829</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1980</v>
@@ -2714,13 +2684,13 @@
         <v>2020714</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2705,13 @@
         <v>2177981</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
         <v>1898</v>
@@ -2750,13 +2720,13 @@
         <v>1945558</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4041</v>
@@ -2765,13 +2735,13 @@
         <v>4123539</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,7 +2797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2848,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9EF075-8E56-4444-87BD-4314463D4C9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD78C87-AFA8-47C9-B5E3-76BB673C8F8D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2865,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2972,13 +2942,13 @@
         <v>37907</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -2987,13 +2957,13 @@
         <v>56038</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>89</v>
@@ -3002,13 +2972,13 @@
         <v>93945</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +2993,13 @@
         <v>76215</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>47</v>
@@ -3038,13 +3008,13 @@
         <v>52165</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>127</v>
@@ -3053,13 +3023,13 @@
         <v>128380</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3097,13 @@
         <v>150728</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>181</v>
@@ -3142,13 +3112,13 @@
         <v>190240</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>322</v>
@@ -3157,13 +3127,13 @@
         <v>340968</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3148,13 @@
         <v>416109</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>333</v>
@@ -3193,22 +3163,22 @@
         <v>355096</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>725</v>
       </c>
       <c r="N8" s="7">
-        <v>771206</v>
+        <v>771205</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>159</v>
@@ -3256,7 +3226,7 @@
         <v>1047</v>
       </c>
       <c r="N9" s="7">
-        <v>1112174</v>
+        <v>1112173</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3762,13 +3732,13 @@
         <v>1302456</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>2232</v>
@@ -3777,13 +3747,13 @@
         <v>2381237</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3768,13 @@
         <v>2201696</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>1905</v>
@@ -3813,13 +3783,13 @@
         <v>2060336</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>3964</v>
@@ -3828,13 +3798,13 @@
         <v>4262033</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,7 +3860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3911,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1BE783-9796-4A55-94F7-E6D3C2B58F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E72B2E-5EDB-4DA6-80F4-1FA38A03F7D5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3928,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4035,13 +4005,13 @@
         <v>31527</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -4050,13 +4020,13 @@
         <v>28617</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4065,13 +4035,13 @@
         <v>60144</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4056,13 @@
         <v>71398</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -4101,13 +4071,13 @@
         <v>72119</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>143</v>
@@ -4116,10 +4086,10 @@
         <v>143517</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>249</v>
@@ -4208,10 +4178,10 @@
         <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>257</v>
@@ -4220,13 +4190,13 @@
         <v>265856</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4211,13 @@
         <v>384889</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>375</v>
@@ -4256,13 +4226,13 @@
         <v>381992</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>752</v>
@@ -4271,13 +4241,13 @@
         <v>766881</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4315,13 @@
         <v>228619</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>235</v>
@@ -4360,13 +4330,13 @@
         <v>247274</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>445</v>
@@ -4375,13 +4345,13 @@
         <v>475893</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4366,13 @@
         <v>736917</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>686</v>
@@ -4411,13 +4381,13 @@
         <v>732269</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1372</v>
@@ -4426,13 +4396,13 @@
         <v>1469187</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4470,13 @@
         <v>203345</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>244</v>
@@ -4515,13 +4485,13 @@
         <v>254313</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>429</v>
@@ -4530,13 +4500,13 @@
         <v>457658</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4521,13 @@
         <v>519891</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -4566,13 +4536,13 @@
         <v>478529</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>922</v>
@@ -4581,13 +4551,13 @@
         <v>998420</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4625,13 @@
         <v>207063</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>193</v>
@@ -4670,13 +4640,13 @@
         <v>206425</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>398</v>
@@ -4685,13 +4655,13 @@
         <v>413487</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4676,13 @@
         <v>643059</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>684</v>
@@ -4721,13 +4691,13 @@
         <v>740177</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>1327</v>
@@ -4736,13 +4706,13 @@
         <v>1383237</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4780,13 @@
         <v>794787</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>15</v>
       </c>
       <c r="H19" s="7">
         <v>844</v>
@@ -4825,13 +4795,13 @@
         <v>878251</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>1589</v>
@@ -4840,13 +4810,13 @@
         <v>1673037</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4831,13 @@
         <v>2356155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>2262</v>
@@ -4876,13 +4846,13 @@
         <v>2405087</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>4516</v>
@@ -4891,13 +4861,13 @@
         <v>4761242</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,7 +4923,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4974,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B4EED-A1C9-4921-9431-A2B30DE6B9FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDA9432-7B4E-4C84-A6C2-6D34544EB52E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4991,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5098,13 +5068,13 @@
         <v>9572</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5113,13 +5083,13 @@
         <v>11377</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -5128,13 +5098,13 @@
         <v>20949</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,16 +5116,16 @@
         <v>82</v>
       </c>
       <c r="D5" s="7">
-        <v>66582</v>
+        <v>66583</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>178</v>
@@ -5164,13 +5134,13 @@
         <v>99854</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>260</v>
@@ -5179,13 +5149,13 @@
         <v>166436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,7 +5167,7 @@
         <v>91</v>
       </c>
       <c r="D6" s="7">
-        <v>76154</v>
+        <v>76155</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5253,13 +5223,13 @@
         <v>38220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -5268,13 +5238,13 @@
         <v>45589</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>105</v>
@@ -5283,13 +5253,13 @@
         <v>83809</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5274,13 @@
         <v>456406</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>819</v>
@@ -5319,13 +5289,13 @@
         <v>488602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>1335</v>
@@ -5334,13 +5304,13 @@
         <v>945008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5378,13 @@
         <v>131285</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>183</v>
@@ -5423,13 +5393,13 @@
         <v>135597</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>251</v>
@@ -5438,13 +5408,13 @@
         <v>266882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5429,13 @@
         <v>824812</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>1183</v>
@@ -5474,13 +5444,13 @@
         <v>830232</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>1993</v>
@@ -5489,13 +5459,13 @@
         <v>1655044</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5533,13 @@
         <v>77073</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -5578,13 +5548,13 @@
         <v>116856</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>200</v>
@@ -5593,13 +5563,13 @@
         <v>193929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5584,13 @@
         <v>591467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>816</v>
@@ -5629,13 +5599,13 @@
         <v>702617</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>1366</v>
@@ -5644,13 +5614,13 @@
         <v>1294084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5688,13 @@
         <v>133489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>194</v>
@@ -5733,13 +5703,13 @@
         <v>153039</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>317</v>
@@ -5748,13 +5718,13 @@
         <v>286527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5739,13 @@
         <v>754722</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>1220</v>
@@ -5784,13 +5754,13 @@
         <v>895375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>2013</v>
@@ -5799,13 +5769,13 @@
         <v>1650098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5843,13 @@
         <v>389638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>605</v>
@@ -5888,13 +5858,13 @@
         <v>462458</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>901</v>
@@ -5903,13 +5873,13 @@
         <v>852096</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5894,13 @@
         <v>2693991</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>4216</v>
@@ -5939,13 +5909,13 @@
         <v>3016679</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>6967</v>
@@ -5954,13 +5924,13 @@
         <v>5710670</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,7 +5986,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P26-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P26-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43BB2EBF-21FD-4D5D-B964-308D531EDC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{324201A7-B662-4109-B89E-DEE8CE6DC90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3DCDB0C-37D0-4635-9035-DA72F5C38548}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{09C123CD-EB4B-40A7-AE0C-D43A3D73B79C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
   <si>
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2007 (Tasa respuesta: 92,47%)</t>
   </si>
@@ -68,330 +68,279 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
     <t>62,91%</t>
   </si>
   <si>
@@ -416,112 +365,58 @@
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2012 (Tasa respuesta: 95,22%)</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
   </si>
   <si>
     <t>32,68%</t>
@@ -737,258 +632,216 @@
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2016 (Tasa respuesta: 92,94%)</t>
   </si>
   <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
     <t>74,69%</t>
   </si>
   <si>
@@ -1004,9 +857,6 @@
     <t>26,75%</t>
   </si>
   <si>
-    <t>28,25%</t>
-  </si>
-  <si>
     <t>26,0%</t>
   </si>
   <si>
@@ -1022,9 +872,6 @@
     <t>73,25%</t>
   </si>
   <si>
-    <t>71,75%</t>
-  </si>
-  <si>
     <t>74,0%</t>
   </si>
   <si>
@@ -1034,316 +881,262 @@
     <t>Población según si tienen algún familiar que fuma habitualmente en casa en 2023 (Tasa respuesta: 89,99%)</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3FAB7E-6D6F-4981-A3CD-6D251EC50138}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9691CDB3-36B4-4C7D-B2D7-8836C8C1F703}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1873,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="D4" s="7">
-        <v>37935</v>
+        <v>181599</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1888,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="I4" s="7">
-        <v>35825</v>
+        <v>233704</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1903,10 +1696,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>75</v>
+        <v>413</v>
       </c>
       <c r="N4" s="7">
-        <v>73759</v>
+        <v>415304</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1924,10 +1717,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>66</v>
+        <v>455</v>
       </c>
       <c r="D5" s="7">
-        <v>73085</v>
+        <v>461211</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1939,10 +1732,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>75</v>
+        <v>396</v>
       </c>
       <c r="I5" s="7">
-        <v>65460</v>
+        <v>390666</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1954,10 +1747,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>141</v>
+        <v>851</v>
       </c>
       <c r="N5" s="7">
-        <v>138546</v>
+        <v>851876</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1975,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>101</v>
+        <v>632</v>
       </c>
       <c r="D6" s="7">
-        <v>111020</v>
+        <v>642810</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1783,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>632</v>
       </c>
       <c r="I6" s="7">
-        <v>101285</v>
+        <v>624370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1798,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>216</v>
+        <v>1264</v>
       </c>
       <c r="N6" s="7">
-        <v>212305</v>
+        <v>1267180</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2028,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="D7" s="7">
-        <v>143665</v>
+        <v>261376</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2043,10 +1836,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>196</v>
+        <v>319</v>
       </c>
       <c r="I7" s="7">
-        <v>197880</v>
+        <v>335265</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2058,10 +1851,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>338</v>
+        <v>563</v>
       </c>
       <c r="N7" s="7">
-        <v>341544</v>
+        <v>596642</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2079,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>389</v>
+        <v>603</v>
       </c>
       <c r="D8" s="7">
-        <v>388125</v>
+        <v>645857</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2094,10 +1887,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>321</v>
+        <v>516</v>
       </c>
       <c r="I8" s="7">
-        <v>325206</v>
+        <v>554731</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2109,10 +1902,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>710</v>
+        <v>1119</v>
       </c>
       <c r="N8" s="7">
-        <v>713331</v>
+        <v>1200587</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2130,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>531</v>
+        <v>847</v>
       </c>
       <c r="D9" s="7">
-        <v>531790</v>
+        <v>907233</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2145,10 +1938,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>517</v>
+        <v>835</v>
       </c>
       <c r="I9" s="7">
-        <v>523086</v>
+        <v>889996</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2160,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1048</v>
+        <v>1682</v>
       </c>
       <c r="N9" s="7">
-        <v>1054875</v>
+        <v>1797229</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2183,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="D10" s="7">
-        <v>261376</v>
+        <v>188754</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2198,10 +1991,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="I10" s="7">
-        <v>335265</v>
+        <v>224068</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2213,10 +2006,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>563</v>
+        <v>409</v>
       </c>
       <c r="N10" s="7">
-        <v>596642</v>
+        <v>412822</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2234,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>603</v>
+        <v>424</v>
       </c>
       <c r="D11" s="7">
-        <v>645857</v>
+        <v>445861</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2249,10 +2042,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>516</v>
+        <v>406</v>
       </c>
       <c r="I11" s="7">
-        <v>554731</v>
+        <v>399422</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2264,10 +2057,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1119</v>
+        <v>830</v>
       </c>
       <c r="N11" s="7">
-        <v>1200587</v>
+        <v>845282</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2285,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>847</v>
+        <v>602</v>
       </c>
       <c r="D12" s="7">
-        <v>907233</v>
+        <v>634615</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2300,10 +2093,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>835</v>
+        <v>637</v>
       </c>
       <c r="I12" s="7">
-        <v>889996</v>
+        <v>623490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2108,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1682</v>
+        <v>1239</v>
       </c>
       <c r="N12" s="7">
-        <v>1797229</v>
+        <v>1258104</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2338,10 +2131,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="D13" s="7">
-        <v>188754</v>
+        <v>242155</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2353,10 +2146,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="I13" s="7">
-        <v>224068</v>
+        <v>353791</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2368,10 +2161,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>409</v>
+        <v>595</v>
       </c>
       <c r="N13" s="7">
-        <v>412822</v>
+        <v>595947</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2389,10 +2182,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>424</v>
+        <v>661</v>
       </c>
       <c r="D14" s="7">
-        <v>445861</v>
+        <v>625053</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2404,10 +2197,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>406</v>
+        <v>580</v>
       </c>
       <c r="I14" s="7">
-        <v>399422</v>
+        <v>600740</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2419,10 +2212,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>830</v>
+        <v>1241</v>
       </c>
       <c r="N14" s="7">
-        <v>845282</v>
+        <v>1225792</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2440,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>602</v>
+        <v>918</v>
       </c>
       <c r="D15" s="7">
-        <v>634615</v>
+        <v>867208</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2455,10 +2248,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>637</v>
+        <v>918</v>
       </c>
       <c r="I15" s="7">
-        <v>623490</v>
+        <v>954531</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2470,10 +2263,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1239</v>
+        <v>1836</v>
       </c>
       <c r="N15" s="7">
-        <v>1258104</v>
+        <v>1821739</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2487,55 +2280,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>257</v>
+        <v>856</v>
       </c>
       <c r="D16" s="7">
-        <v>242155</v>
+        <v>873885</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1124</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1146829</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>338</v>
-      </c>
-      <c r="I16" s="7">
-        <v>353791</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1980</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2020714</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>595</v>
-      </c>
-      <c r="N16" s="7">
-        <v>595947</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,49 +2337,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>661</v>
+        <v>2143</v>
       </c>
       <c r="D17" s="7">
-        <v>625053</v>
+        <v>2177981</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1898</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1945558</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>580</v>
-      </c>
-      <c r="I17" s="7">
-        <v>600740</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4041</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4123539</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1241</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1225792</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,10 +2388,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>918</v>
+        <v>2999</v>
       </c>
       <c r="D18" s="7">
-        <v>867208</v>
+        <v>3051866</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2610,10 +2403,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>918</v>
+        <v>3022</v>
       </c>
       <c r="I18" s="7">
-        <v>954531</v>
+        <v>3092387</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2625,10 +2418,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1836</v>
+        <v>6021</v>
       </c>
       <c r="N18" s="7">
-        <v>1821739</v>
+        <v>6144253</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2641,171 +2434,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>856</v>
-      </c>
-      <c r="D19" s="7">
-        <v>873885</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1124</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1146829</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1980</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2020714</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2143</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2177981</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1898</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1945558</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4041</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4123539</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2999</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3051866</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3022</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3092387</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6021</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6144253</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2818,8 +2455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD78C87-AFA8-47C9-B5E3-76BB673C8F8D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39830A9-C48A-4D14-A194-CF22A9E2392C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2835,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,49 +2573,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="D4" s="7">
-        <v>37907</v>
+        <v>188635</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="I4" s="7">
-        <v>56038</v>
+        <v>246279</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>89</v>
+        <v>411</v>
       </c>
       <c r="N4" s="7">
-        <v>93945</v>
+        <v>434914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2624,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="D5" s="7">
-        <v>76215</v>
+        <v>492324</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>47</v>
+        <v>380</v>
       </c>
       <c r="I5" s="7">
-        <v>52165</v>
+        <v>407261</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>127</v>
+        <v>852</v>
       </c>
       <c r="N5" s="7">
-        <v>128380</v>
+        <v>899584</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>120</v>
+        <v>653</v>
       </c>
       <c r="D6" s="7">
-        <v>114122</v>
+        <v>680959</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2690,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>96</v>
+        <v>610</v>
       </c>
       <c r="I6" s="7">
-        <v>108203</v>
+        <v>653540</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2705,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>216</v>
+        <v>1263</v>
       </c>
       <c r="N6" s="7">
-        <v>222325</v>
+        <v>1334498</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3091,49 +2728,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="D7" s="7">
-        <v>150728</v>
+        <v>320697</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>181</v>
+        <v>364</v>
       </c>
       <c r="I7" s="7">
-        <v>190240</v>
+        <v>397329</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>322</v>
+        <v>660</v>
       </c>
       <c r="N7" s="7">
-        <v>340968</v>
+        <v>718026</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +2779,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>392</v>
+        <v>607</v>
       </c>
       <c r="D8" s="7">
-        <v>416109</v>
+        <v>660726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>333</v>
+        <v>539</v>
       </c>
       <c r="I8" s="7">
-        <v>355096</v>
+        <v>594996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>725</v>
+        <v>1146</v>
       </c>
       <c r="N8" s="7">
-        <v>771205</v>
+        <v>1255721</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>533</v>
+        <v>903</v>
       </c>
       <c r="D9" s="7">
-        <v>566837</v>
+        <v>981423</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3208,10 +2845,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>514</v>
+        <v>903</v>
       </c>
       <c r="I9" s="7">
-        <v>545336</v>
+        <v>992325</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3223,10 +2860,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1047</v>
+        <v>1806</v>
       </c>
       <c r="N9" s="7">
-        <v>1112173</v>
+        <v>1973747</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3246,49 +2883,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="D10" s="7">
-        <v>320697</v>
+        <v>236498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="I10" s="7">
-        <v>397329</v>
+        <v>301747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>660</v>
+        <v>496</v>
       </c>
       <c r="N10" s="7">
-        <v>718026</v>
+        <v>538245</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,49 +2934,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>607</v>
+        <v>436</v>
       </c>
       <c r="D11" s="7">
-        <v>660726</v>
+        <v>480372</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>539</v>
+        <v>388</v>
       </c>
       <c r="I11" s="7">
-        <v>594996</v>
+        <v>431126</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>824</v>
       </c>
       <c r="N11" s="7">
-        <v>1255722</v>
+        <v>911498</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>903</v>
+        <v>654</v>
       </c>
       <c r="D12" s="7">
-        <v>981423</v>
+        <v>716870</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3363,10 +3000,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>903</v>
+        <v>666</v>
       </c>
       <c r="I12" s="7">
-        <v>992325</v>
+        <v>732873</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3378,10 +3015,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1806</v>
+        <v>1320</v>
       </c>
       <c r="N12" s="7">
-        <v>1973748</v>
+        <v>1449743</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3401,49 +3038,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="D13" s="7">
-        <v>236498</v>
+        <v>332951</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>278</v>
+        <v>343</v>
       </c>
       <c r="I13" s="7">
-        <v>301747</v>
+        <v>357101</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>496</v>
+        <v>665</v>
       </c>
       <c r="N13" s="7">
-        <v>538245</v>
+        <v>690052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3089,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>436</v>
+        <v>544</v>
       </c>
       <c r="D14" s="7">
-        <v>480372</v>
+        <v>568275</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>388</v>
+        <v>598</v>
       </c>
       <c r="I14" s="7">
-        <v>431126</v>
+        <v>626954</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>824</v>
+        <v>1142</v>
       </c>
       <c r="N14" s="7">
-        <v>911498</v>
+        <v>1195229</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>654</v>
+        <v>866</v>
       </c>
       <c r="D15" s="7">
-        <v>716870</v>
+        <v>901226</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3518,10 +3155,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>666</v>
+        <v>941</v>
       </c>
       <c r="I15" s="7">
-        <v>732873</v>
+        <v>984055</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3533,10 +3170,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1320</v>
+        <v>1807</v>
       </c>
       <c r="N15" s="7">
-        <v>1449743</v>
+        <v>1885281</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3550,55 +3187,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>322</v>
+        <v>1017</v>
       </c>
       <c r="D16" s="7">
-        <v>332951</v>
+        <v>1078781</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>343</v>
+        <v>1215</v>
       </c>
       <c r="I16" s="7">
-        <v>357101</v>
+        <v>1302456</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
-        <v>665</v>
+        <v>2232</v>
       </c>
       <c r="N16" s="7">
-        <v>690052</v>
+        <v>2381237</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3244,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>544</v>
+        <v>2059</v>
       </c>
       <c r="D17" s="7">
-        <v>568275</v>
+        <v>2201696</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
-        <v>598</v>
+        <v>1905</v>
       </c>
       <c r="I17" s="7">
-        <v>626954</v>
+        <v>2060336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>1142</v>
+        <v>3964</v>
       </c>
       <c r="N17" s="7">
-        <v>1195229</v>
+        <v>4262033</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>866</v>
+        <v>3076</v>
       </c>
       <c r="D18" s="7">
-        <v>901226</v>
+        <v>3280477</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3673,10 +3310,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>941</v>
+        <v>3120</v>
       </c>
       <c r="I18" s="7">
-        <v>984055</v>
+        <v>3362792</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3688,10 +3325,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1807</v>
+        <v>6196</v>
       </c>
       <c r="N18" s="7">
-        <v>1885281</v>
+        <v>6643270</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3704,171 +3341,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1017</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1078781</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1215</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1302456</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2232</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2381237</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2059</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2201696</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1905</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2060336</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3964</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4262033</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3076</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3280477</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3120</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3362792</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6196</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6643270</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3881,8 +3362,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E72B2E-5EDB-4DA6-80F4-1FA38A03F7D5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08605DBF-EA3E-4A9C-BF37-605B23D66A30}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3898,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,49 +3480,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="D4" s="7">
-        <v>31527</v>
+        <v>155761</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="I4" s="7">
-        <v>28617</v>
+        <v>170239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="N4" s="7">
-        <v>60144</v>
+        <v>326000</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +3531,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>447</v>
       </c>
       <c r="D5" s="7">
-        <v>71398</v>
+        <v>456286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>73</v>
+        <v>448</v>
       </c>
       <c r="I5" s="7">
-        <v>72119</v>
+        <v>454111</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>143</v>
+        <v>895</v>
       </c>
       <c r="N5" s="7">
-        <v>143517</v>
+        <v>910398</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>100</v>
+        <v>592</v>
       </c>
       <c r="D6" s="7">
-        <v>102925</v>
+        <v>612047</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4116,10 +3597,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>103</v>
+        <v>620</v>
       </c>
       <c r="I6" s="7">
-        <v>100736</v>
+        <v>624350</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4131,10 +3612,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>203</v>
+        <v>1212</v>
       </c>
       <c r="N6" s="7">
-        <v>203661</v>
+        <v>1236398</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4154,49 +3635,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="D7" s="7">
-        <v>124234</v>
+        <v>228619</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="I7" s="7">
-        <v>141622</v>
+        <v>247274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>257</v>
+        <v>445</v>
       </c>
       <c r="N7" s="7">
-        <v>265856</v>
+        <v>475893</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,49 +3686,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>377</v>
+        <v>686</v>
       </c>
       <c r="D8" s="7">
-        <v>384889</v>
+        <v>736917</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>375</v>
+        <v>686</v>
       </c>
       <c r="I8" s="7">
-        <v>381992</v>
+        <v>732269</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>752</v>
+        <v>1372</v>
       </c>
       <c r="N8" s="7">
-        <v>766881</v>
+        <v>1469187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>492</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>509123</v>
+        <v>965536</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4271,10 +3752,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>517</v>
+        <v>921</v>
       </c>
       <c r="I9" s="7">
-        <v>523614</v>
+        <v>979543</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4286,10 +3767,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1009</v>
+        <v>1817</v>
       </c>
       <c r="N9" s="7">
-        <v>1032737</v>
+        <v>1945080</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4309,49 +3790,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D10" s="7">
-        <v>228619</v>
+        <v>203345</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="I10" s="7">
-        <v>247274</v>
+        <v>254313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="N10" s="7">
-        <v>475893</v>
+        <v>457658</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,49 +3841,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>686</v>
+        <v>478</v>
       </c>
       <c r="D11" s="7">
-        <v>736917</v>
+        <v>519891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>686</v>
+        <v>444</v>
       </c>
       <c r="I11" s="7">
-        <v>732269</v>
+        <v>478529</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>1372</v>
+        <v>922</v>
       </c>
       <c r="N11" s="7">
-        <v>1469187</v>
+        <v>998420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>663</v>
       </c>
       <c r="D12" s="7">
-        <v>965536</v>
+        <v>723236</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4426,10 +3907,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>921</v>
+        <v>688</v>
       </c>
       <c r="I12" s="7">
-        <v>979543</v>
+        <v>732842</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4441,10 +3922,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1817</v>
+        <v>1351</v>
       </c>
       <c r="N12" s="7">
-        <v>1945080</v>
+        <v>1456078</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4464,49 +3945,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D13" s="7">
-        <v>203345</v>
+        <v>207063</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="I13" s="7">
-        <v>254313</v>
+        <v>206425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="N13" s="7">
-        <v>457658</v>
+        <v>413487</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,49 +3996,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>478</v>
+        <v>643</v>
       </c>
       <c r="D14" s="7">
-        <v>519891</v>
+        <v>643059</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
-        <v>444</v>
+        <v>684</v>
       </c>
       <c r="I14" s="7">
-        <v>478529</v>
+        <v>740177</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
-        <v>922</v>
+        <v>1327</v>
       </c>
       <c r="N14" s="7">
-        <v>998420</v>
+        <v>1383237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>663</v>
+        <v>848</v>
       </c>
       <c r="D15" s="7">
-        <v>723236</v>
+        <v>850122</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4581,10 +4062,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>688</v>
+        <v>877</v>
       </c>
       <c r="I15" s="7">
-        <v>732842</v>
+        <v>946602</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4596,10 +4077,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1351</v>
+        <v>1725</v>
       </c>
       <c r="N15" s="7">
-        <v>1456078</v>
+        <v>1796724</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4613,55 +4094,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>205</v>
+        <v>745</v>
       </c>
       <c r="D16" s="7">
-        <v>207063</v>
+        <v>794787</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>193</v>
+        <v>844</v>
       </c>
       <c r="I16" s="7">
-        <v>206425</v>
+        <v>878250</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>398</v>
+        <v>1589</v>
       </c>
       <c r="N16" s="7">
-        <v>413487</v>
+        <v>1673037</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,49 +4151,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>643</v>
+        <v>2254</v>
       </c>
       <c r="D17" s="7">
-        <v>643059</v>
+        <v>2356155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
-        <v>684</v>
+        <v>2262</v>
       </c>
       <c r="I17" s="7">
-        <v>740177</v>
+        <v>2405087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
-        <v>1327</v>
+        <v>4516</v>
       </c>
       <c r="N17" s="7">
-        <v>1383237</v>
+        <v>4761242</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,10 +4202,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>848</v>
+        <v>2999</v>
       </c>
       <c r="D18" s="7">
-        <v>850122</v>
+        <v>3150942</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4736,10 +4217,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>877</v>
+        <v>3106</v>
       </c>
       <c r="I18" s="7">
-        <v>946602</v>
+        <v>3283337</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4751,10 +4232,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1725</v>
+        <v>6105</v>
       </c>
       <c r="N18" s="7">
-        <v>1796724</v>
+        <v>6434279</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4767,171 +4248,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>745</v>
-      </c>
-      <c r="D19" s="7">
-        <v>794787</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="7">
-        <v>844</v>
-      </c>
-      <c r="I19" s="7">
-        <v>878251</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1589</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1673037</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2254</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2356155</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2262</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2405087</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4516</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4761242</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2999</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3150942</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3106</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3283338</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6105</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6434279</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4944,8 +4269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDA9432-7B4E-4C84-A6C2-6D34544EB52E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD251E83-86DF-4225-9BC1-3065E3A8F481}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4961,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,49 +4387,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>9572</v>
+        <v>48772</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I4" s="7">
-        <v>11377</v>
+        <v>55429</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="N4" s="7">
-        <v>20949</v>
+        <v>104201</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,49 +4438,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="D5" s="7">
-        <v>66583</v>
+        <v>507556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
-        <v>178</v>
+        <v>997</v>
       </c>
       <c r="I5" s="7">
-        <v>99854</v>
+        <v>547367</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="M5" s="7">
-        <v>260</v>
+        <v>1595</v>
       </c>
       <c r="N5" s="7">
-        <v>166436</v>
+        <v>1054923</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,10 +4489,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>643</v>
       </c>
       <c r="D6" s="7">
-        <v>76155</v>
+        <v>556328</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5179,10 +4504,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>197</v>
+        <v>1085</v>
       </c>
       <c r="I6" s="7">
-        <v>111231</v>
+        <v>602796</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5194,10 +4519,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>288</v>
+        <v>1728</v>
       </c>
       <c r="N6" s="7">
-        <v>187385</v>
+        <v>1159124</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5217,49 +4542,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>38220</v>
+        <v>325723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="I7" s="7">
-        <v>45589</v>
+        <v>125182</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="N7" s="7">
-        <v>83809</v>
+        <v>450905</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,49 +4593,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>516</v>
+        <v>810</v>
       </c>
       <c r="D8" s="7">
-        <v>456406</v>
+        <v>790757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
-        <v>819</v>
+        <v>1183</v>
       </c>
       <c r="I8" s="7">
-        <v>488602</v>
+        <v>748253</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
-        <v>1335</v>
+        <v>1993</v>
       </c>
       <c r="N8" s="7">
-        <v>945008</v>
+        <v>1539010</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,10 +4644,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>878</v>
       </c>
       <c r="D9" s="7">
-        <v>494626</v>
+        <v>1116480</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5334,10 +4659,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>888</v>
+        <v>1366</v>
       </c>
       <c r="I9" s="7">
-        <v>534191</v>
+        <v>873435</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5349,10 +4674,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1440</v>
+        <v>2244</v>
       </c>
       <c r="N9" s="7">
-        <v>1028817</v>
+        <v>1989915</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5372,49 +4697,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>131285</v>
+        <v>78356</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="I10" s="7">
-        <v>135597</v>
+        <v>110271</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="N10" s="7">
-        <v>266882</v>
+        <v>188627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +4748,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>810</v>
+        <v>550</v>
       </c>
       <c r="D11" s="7">
-        <v>824812</v>
+        <v>567497</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
-        <v>1183</v>
+        <v>816</v>
       </c>
       <c r="I11" s="7">
-        <v>830232</v>
+        <v>772793</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
-        <v>1993</v>
+        <v>1366</v>
       </c>
       <c r="N11" s="7">
-        <v>1655044</v>
+        <v>1340290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,10 +4799,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>878</v>
+        <v>610</v>
       </c>
       <c r="D12" s="7">
-        <v>956097</v>
+        <v>645853</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5489,10 +4814,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1366</v>
+        <v>956</v>
       </c>
       <c r="I12" s="7">
-        <v>965829</v>
+        <v>883064</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5504,10 +4829,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2244</v>
+        <v>1566</v>
       </c>
       <c r="N12" s="7">
-        <v>1921926</v>
+        <v>1528917</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5527,49 +4852,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="D13" s="7">
-        <v>77073</v>
+        <v>133409</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="I13" s="7">
-        <v>116856</v>
+        <v>142509</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="N13" s="7">
-        <v>193929</v>
+        <v>275917</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,49 +4903,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>550</v>
+        <v>793</v>
       </c>
       <c r="D14" s="7">
-        <v>591467</v>
+        <v>717911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
-        <v>816</v>
+        <v>1220</v>
       </c>
       <c r="I14" s="7">
-        <v>702617</v>
+        <v>862994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
-        <v>1366</v>
+        <v>2013</v>
       </c>
       <c r="N14" s="7">
-        <v>1294084</v>
+        <v>1580905</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>610</v>
+        <v>916</v>
       </c>
       <c r="D15" s="7">
-        <v>668540</v>
+        <v>851320</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5644,10 +4969,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>956</v>
+        <v>1414</v>
       </c>
       <c r="I15" s="7">
-        <v>819473</v>
+        <v>1005503</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5659,10 +4984,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1566</v>
+        <v>2330</v>
       </c>
       <c r="N15" s="7">
-        <v>1488013</v>
+        <v>1856822</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5676,55 +5001,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>123</v>
+        <v>296</v>
       </c>
       <c r="D16" s="7">
-        <v>133489</v>
+        <v>586260</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
-        <v>194</v>
+        <v>605</v>
       </c>
       <c r="I16" s="7">
-        <v>153039</v>
+        <v>433391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
-        <v>317</v>
+        <v>901</v>
       </c>
       <c r="N16" s="7">
-        <v>286527</v>
+        <v>1019650</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,49 +5058,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>793</v>
+        <v>2751</v>
       </c>
       <c r="D17" s="7">
-        <v>754722</v>
+        <v>2583721</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
-        <v>1220</v>
+        <v>4216</v>
       </c>
       <c r="I17" s="7">
-        <v>895375</v>
+        <v>2931406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
-        <v>2013</v>
+        <v>6967</v>
       </c>
       <c r="N17" s="7">
-        <v>1650098</v>
+        <v>5515128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>916</v>
+        <v>3047</v>
       </c>
       <c r="D18" s="7">
-        <v>888211</v>
+        <v>3169981</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5799,10 +5124,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1414</v>
+        <v>4821</v>
       </c>
       <c r="I18" s="7">
-        <v>1048414</v>
+        <v>3364797</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5814,10 +5139,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2330</v>
+        <v>7868</v>
       </c>
       <c r="N18" s="7">
-        <v>1936625</v>
+        <v>6534778</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5830,171 +5155,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>296</v>
-      </c>
-      <c r="D19" s="7">
-        <v>389638</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" s="7">
-        <v>605</v>
-      </c>
-      <c r="I19" s="7">
-        <v>462458</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M19" s="7">
-        <v>901</v>
-      </c>
-      <c r="N19" s="7">
-        <v>852096</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2751</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2693991</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4216</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3016679</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6967</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5710670</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3047</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3083629</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4821</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3479137</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>7868</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6562766</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
